--- a/estrutura visual.xlsx
+++ b/estrutura visual.xlsx
@@ -2,21 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="16275" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Projeto Visual" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Classe</t>
   </si>
@@ -108,14 +107,23 @@
     <t>Lista os chamados feitos</t>
   </si>
   <si>
-    <t>Lista os profissionais e a quantidade de chamdos de cada</t>
+    <t>Lista os operadores e a quantidade de chamados de cada</t>
+  </si>
+  <si>
+    <t>Lista os profissionais e a quantidade de chamados de cada</t>
+  </si>
+  <si>
+    <t>Exibir operadores c/ Chamados</t>
+  </si>
+  <si>
+    <t>Lista os niveis e a quantidade de chamados com esses níveis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,14 +141,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +175,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -206,17 +228,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -233,11 +244,99 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -245,74 +344,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,424 +739,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <sheetPr codeName="Plan1"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="11" max="12" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="24"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="34"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14" t="s">
+      <c r="L10" s="34"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="12" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="34"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="14" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="14" t="s">
+      <c r="I16" s="8"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="14" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1046,9 +1242,49 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="K14:L14"/>
     <mergeCell ref="B1:L2"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H13:I13"/>
@@ -1056,18 +1292,6 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
@@ -1077,38 +1301,28 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>